--- a/TessGerritsen.xlsx
+++ b/TessGerritsen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\Documents\Books\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D59CF97-DDEF-4FEE-9C6E-C12533B3A0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB740730-E443-4C08-B5DA-E5EE1E712665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -477,59 +477,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="A7:C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="2" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -548,7 +546,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -560,7 +558,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
